--- a/data/pca/factorExposure/factorExposure_2011-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01682094370064914</v>
+        <v>-0.01575274283544846</v>
       </c>
       <c r="C2">
-        <v>-0.006978103344518115</v>
+        <v>0.0007011733138517766</v>
       </c>
       <c r="D2">
-        <v>0.05159340909271209</v>
+        <v>-0.005921453602401946</v>
       </c>
       <c r="E2">
-        <v>-0.02937492261008721</v>
+        <v>0.03911800008443945</v>
       </c>
       <c r="F2">
-        <v>-0.04203831579693561</v>
+        <v>0.0005405627359656713</v>
       </c>
       <c r="G2">
-        <v>-0.01275527350338691</v>
+        <v>-0.03209334327817932</v>
       </c>
       <c r="H2">
-        <v>-0.03019415709553544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.0236718954120112</v>
+      </c>
+      <c r="I2">
+        <v>-0.0147336740667934</v>
+      </c>
+      <c r="J2">
+        <v>-0.04426536087885537</v>
+      </c>
+      <c r="K2">
+        <v>-0.04067095322045149</v>
+      </c>
+      <c r="L2">
+        <v>0.01672532466482273</v>
+      </c>
+      <c r="M2">
+        <v>0.001642142675959974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07601967976469591</v>
+        <v>-0.1071173040379476</v>
       </c>
       <c r="C4">
-        <v>0.05457997618333662</v>
+        <v>0.08036459169167283</v>
       </c>
       <c r="D4">
-        <v>0.0302851669056469</v>
+        <v>-0.01925330245768025</v>
       </c>
       <c r="E4">
-        <v>-0.05399655317717486</v>
+        <v>0.05010596888985328</v>
       </c>
       <c r="F4">
-        <v>-0.006449257552377033</v>
+        <v>0.1357209999790532</v>
       </c>
       <c r="G4">
-        <v>-0.01409744859816734</v>
+        <v>0.02592573296614531</v>
       </c>
       <c r="H4">
-        <v>0.003279577690336159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01256220319650825</v>
+      </c>
+      <c r="I4">
+        <v>-0.04598284159280105</v>
+      </c>
+      <c r="J4">
+        <v>0.04481142517441759</v>
+      </c>
+      <c r="K4">
+        <v>0.03802799721735738</v>
+      </c>
+      <c r="L4">
+        <v>-0.06107016971603509</v>
+      </c>
+      <c r="M4">
+        <v>0.04705654034320299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1246606277002465</v>
+        <v>-0.1313152300064527</v>
       </c>
       <c r="C6">
-        <v>0.0299115723823518</v>
+        <v>0.0530621320568084</v>
       </c>
       <c r="D6">
-        <v>0.04509794873703356</v>
+        <v>-0.005131938665302903</v>
       </c>
       <c r="E6">
-        <v>-0.05486625285048332</v>
+        <v>0.006093465102596232</v>
       </c>
       <c r="F6">
-        <v>0.1134382606997311</v>
+        <v>0.02031895977947989</v>
       </c>
       <c r="G6">
-        <v>-0.00674412038072234</v>
+        <v>0.1766269163392129</v>
       </c>
       <c r="H6">
-        <v>0.3055695676507871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1266656399308191</v>
+      </c>
+      <c r="I6">
+        <v>-0.2751068706556964</v>
+      </c>
+      <c r="J6">
+        <v>0.3123362861362011</v>
+      </c>
+      <c r="K6">
+        <v>-0.06501993540008921</v>
+      </c>
+      <c r="L6">
+        <v>0.1012936025159372</v>
+      </c>
+      <c r="M6">
+        <v>0.006189689669466355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07323986095112678</v>
+        <v>-0.07575285538082875</v>
       </c>
       <c r="C7">
-        <v>0.0568047239013191</v>
+        <v>0.0711978442806369</v>
       </c>
       <c r="D7">
-        <v>0.05511781961185142</v>
+        <v>-0.01059819933636212</v>
       </c>
       <c r="E7">
-        <v>-0.04853036941104411</v>
+        <v>0.04905964910561213</v>
       </c>
       <c r="F7">
-        <v>0.02273369713823355</v>
+        <v>0.02441807604348528</v>
       </c>
       <c r="G7">
-        <v>0.0136714171152123</v>
+        <v>-8.446342675529341e-05</v>
       </c>
       <c r="H7">
-        <v>-0.01502692713761225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0126128812991899</v>
+      </c>
+      <c r="I7">
+        <v>0.03885686157458317</v>
+      </c>
+      <c r="J7">
+        <v>0.005937133456530192</v>
+      </c>
+      <c r="K7">
+        <v>0.02701503717845178</v>
+      </c>
+      <c r="L7">
+        <v>-0.1060750983121526</v>
+      </c>
+      <c r="M7">
+        <v>-0.0217123823064094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02990536576313616</v>
+        <v>-0.03821059063155156</v>
       </c>
       <c r="C8">
-        <v>0.01028649898527001</v>
+        <v>0.01156695242054241</v>
       </c>
       <c r="D8">
-        <v>0.05168831724822273</v>
+        <v>-0.01475677686742431</v>
       </c>
       <c r="E8">
-        <v>-0.05622986952202076</v>
+        <v>0.04698935333946623</v>
       </c>
       <c r="F8">
-        <v>-0.01491357108997859</v>
+        <v>0.1046369854285724</v>
       </c>
       <c r="G8">
-        <v>-0.06034635590674318</v>
+        <v>0.01884694428294214</v>
       </c>
       <c r="H8">
-        <v>-0.03022570612685217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.002173315980053649</v>
+      </c>
+      <c r="I8">
+        <v>-0.05820539110516879</v>
+      </c>
+      <c r="J8">
+        <v>0.01925165403768901</v>
+      </c>
+      <c r="K8">
+        <v>0.005474415818010307</v>
+      </c>
+      <c r="L8">
+        <v>-0.06937179885044577</v>
+      </c>
+      <c r="M8">
+        <v>0.03917704433180359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07399661742895113</v>
+        <v>-0.08334976762972525</v>
       </c>
       <c r="C9">
-        <v>0.06421092172938783</v>
+        <v>0.0735068149143152</v>
       </c>
       <c r="D9">
-        <v>0.03417410906010416</v>
+        <v>0.002580862599163119</v>
       </c>
       <c r="E9">
-        <v>-0.04616704160532821</v>
+        <v>0.0330984342993402</v>
       </c>
       <c r="F9">
-        <v>-0.02476445717566302</v>
+        <v>0.1280515364688958</v>
       </c>
       <c r="G9">
-        <v>-0.01689760195128997</v>
+        <v>0.02006341470406285</v>
       </c>
       <c r="H9">
-        <v>-0.001098158961510975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.009091626170996493</v>
+      </c>
+      <c r="I9">
+        <v>-0.01703183362466792</v>
+      </c>
+      <c r="J9">
+        <v>0.02960162552958922</v>
+      </c>
+      <c r="K9">
+        <v>0.001995584505769364</v>
+      </c>
+      <c r="L9">
+        <v>-0.04783296835129441</v>
+      </c>
+      <c r="M9">
+        <v>-0.00605112365905736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06008497336099858</v>
+        <v>-0.1125404489926465</v>
       </c>
       <c r="C10">
-        <v>-0.1372524075185313</v>
+        <v>-0.1675088664521266</v>
       </c>
       <c r="D10">
-        <v>0.05975909867991031</v>
+        <v>-0.001651197103718433</v>
       </c>
       <c r="E10">
-        <v>-0.0341197831022402</v>
+        <v>0.0519967008068575</v>
       </c>
       <c r="F10">
-        <v>0.04190676233676598</v>
+        <v>-0.01076882601399466</v>
       </c>
       <c r="G10">
-        <v>0.006357705382995017</v>
+        <v>0.00690697127692697</v>
       </c>
       <c r="H10">
-        <v>0.03382017972181897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.009220624032191219</v>
+      </c>
+      <c r="I10">
+        <v>0.05867714867569625</v>
+      </c>
+      <c r="J10">
+        <v>-0.00462141832784686</v>
+      </c>
+      <c r="K10">
+        <v>0.0002617713944271</v>
+      </c>
+      <c r="L10">
+        <v>-0.01034912666083009</v>
+      </c>
+      <c r="M10">
+        <v>-0.1180215416174066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07029303695052815</v>
+        <v>-0.06856847476100496</v>
       </c>
       <c r="C11">
-        <v>0.0875319121449822</v>
+        <v>0.07197249778975601</v>
       </c>
       <c r="D11">
-        <v>0.03791351019997184</v>
+        <v>0.03273658594851918</v>
       </c>
       <c r="E11">
-        <v>-0.01556496504478721</v>
+        <v>0.01488056068776274</v>
       </c>
       <c r="F11">
-        <v>-0.04583669205842296</v>
+        <v>0.1159074870660092</v>
       </c>
       <c r="G11">
-        <v>-0.06980115393499003</v>
+        <v>0.0004897362930540945</v>
       </c>
       <c r="H11">
-        <v>-0.06437755804552088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.01707607786171524</v>
+      </c>
+      <c r="I11">
+        <v>0.0555686341385549</v>
+      </c>
+      <c r="J11">
+        <v>-0.05862838968015277</v>
+      </c>
+      <c r="K11">
+        <v>-0.05100349601736547</v>
+      </c>
+      <c r="L11">
+        <v>-0.03328798904495864</v>
+      </c>
+      <c r="M11">
+        <v>-0.1128268969505007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06872903716083741</v>
+        <v>-0.07192746847223697</v>
       </c>
       <c r="C12">
-        <v>0.0611241351611325</v>
+        <v>0.06465719284688767</v>
       </c>
       <c r="D12">
-        <v>0.02448434406175667</v>
+        <v>0.03097051760210717</v>
       </c>
       <c r="E12">
-        <v>-0.03400694764421185</v>
+        <v>0.005406828845411202</v>
       </c>
       <c r="F12">
-        <v>-0.0001147511952649845</v>
+        <v>0.1248879834044774</v>
       </c>
       <c r="G12">
-        <v>-0.04409300322872176</v>
+        <v>-0.003155659200843462</v>
       </c>
       <c r="H12">
-        <v>-0.05593579875112245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.0336225622894424</v>
+      </c>
+      <c r="I12">
+        <v>0.03012836734723925</v>
+      </c>
+      <c r="J12">
+        <v>-0.0571422897994721</v>
+      </c>
+      <c r="K12">
+        <v>-0.04829129581435978</v>
+      </c>
+      <c r="L12">
+        <v>-0.06679343839421362</v>
+      </c>
+      <c r="M12">
+        <v>-0.1321410557402883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05417685080992812</v>
+        <v>-0.04591437599174338</v>
       </c>
       <c r="C13">
-        <v>0.01033585050631766</v>
+        <v>0.03005277462723459</v>
       </c>
       <c r="D13">
-        <v>-0.005802581381202771</v>
+        <v>-0.0230295439643411</v>
       </c>
       <c r="E13">
-        <v>-0.01483167946257282</v>
+        <v>0.01230703827428337</v>
       </c>
       <c r="F13">
-        <v>-0.05337888705659403</v>
+        <v>0.04367462356327587</v>
       </c>
       <c r="G13">
-        <v>0.003754215527286603</v>
+        <v>-0.01144352175522099</v>
       </c>
       <c r="H13">
-        <v>-0.01244991992346233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01719884252851534</v>
+      </c>
+      <c r="I13">
+        <v>-0.006318357282471275</v>
+      </c>
+      <c r="J13">
+        <v>0.01042549400246092</v>
+      </c>
+      <c r="K13">
+        <v>0.04136124138568869</v>
+      </c>
+      <c r="L13">
+        <v>-0.04822212534708871</v>
+      </c>
+      <c r="M13">
+        <v>0.04260180556589696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04873462390211412</v>
+        <v>-0.04318093939591543</v>
       </c>
       <c r="C14">
-        <v>0.02262412930061883</v>
+        <v>0.03098098313298703</v>
       </c>
       <c r="D14">
-        <v>0.01972905212744953</v>
+        <v>0.01196094533616657</v>
       </c>
       <c r="E14">
-        <v>-0.005443178860016531</v>
+        <v>0.01496350664884608</v>
       </c>
       <c r="F14">
-        <v>0.01130922919997211</v>
+        <v>0.06949531343658485</v>
       </c>
       <c r="G14">
-        <v>-0.01084684466899092</v>
+        <v>-0.01627337692229642</v>
       </c>
       <c r="H14">
-        <v>0.07176594052694157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.04548261570537124</v>
+      </c>
+      <c r="I14">
+        <v>-0.0100134854559895</v>
+      </c>
+      <c r="J14">
+        <v>0.0710639053648404</v>
+      </c>
+      <c r="K14">
+        <v>0.02283053073621926</v>
+      </c>
+      <c r="L14">
+        <v>-0.05003351703132894</v>
+      </c>
+      <c r="M14">
+        <v>0.02831753022918268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.04113976819639444</v>
+        <v>-0.02993535726226886</v>
       </c>
       <c r="C15">
-        <v>-0.008141977828770651</v>
+        <v>0.007957635707455698</v>
       </c>
       <c r="D15">
-        <v>-0.007479210202431046</v>
+        <v>-0.05798499936154045</v>
       </c>
       <c r="E15">
-        <v>-0.02215016186340281</v>
+        <v>0.003232033851107303</v>
       </c>
       <c r="F15">
-        <v>-0.001721863657377711</v>
+        <v>0.009120514274761208</v>
       </c>
       <c r="G15">
-        <v>0.01249696344108937</v>
+        <v>0.03573529900853687</v>
       </c>
       <c r="H15">
-        <v>0.01428846709370353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04370854076106032</v>
+      </c>
+      <c r="I15">
+        <v>-0.02383772704638213</v>
+      </c>
+      <c r="J15">
+        <v>0.04424806013775169</v>
+      </c>
+      <c r="K15">
+        <v>0.0441414411485128</v>
+      </c>
+      <c r="L15">
+        <v>-0.02466651226551796</v>
+      </c>
+      <c r="M15">
+        <v>-0.01261979741015218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.05968594852252222</v>
+        <v>-0.0730437209249141</v>
       </c>
       <c r="C16">
-        <v>0.08425198384544751</v>
+        <v>0.07868285049159006</v>
       </c>
       <c r="D16">
-        <v>0.03128110864835493</v>
+        <v>0.02175018942180753</v>
       </c>
       <c r="E16">
-        <v>-0.04009766910783549</v>
+        <v>0.01416670052907056</v>
       </c>
       <c r="F16">
-        <v>-0.04344257527629124</v>
+        <v>0.1149742350381424</v>
       </c>
       <c r="G16">
-        <v>-0.04628050185257444</v>
+        <v>-0.01347309635678757</v>
       </c>
       <c r="H16">
-        <v>-0.06125306676296321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.02287787651852468</v>
+      </c>
+      <c r="I16">
+        <v>0.04028354309913493</v>
+      </c>
+      <c r="J16">
+        <v>-0.05200824774631352</v>
+      </c>
+      <c r="K16">
+        <v>-0.0515484502356937</v>
+      </c>
+      <c r="L16">
+        <v>-0.07256713000931428</v>
+      </c>
+      <c r="M16">
+        <v>-0.1064057366743407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04239727346624459</v>
+        <v>-0.04571005567213984</v>
       </c>
       <c r="C20">
-        <v>0.04327531249561857</v>
+        <v>0.03124535252175345</v>
       </c>
       <c r="D20">
-        <v>0.006863177312018351</v>
+        <v>-0.02520400835035085</v>
       </c>
       <c r="E20">
-        <v>-0.02111343559310953</v>
+        <v>0.01881059620846667</v>
       </c>
       <c r="F20">
-        <v>-0.02536217116681473</v>
+        <v>0.06610922493960342</v>
       </c>
       <c r="G20">
-        <v>-0.01812670859515022</v>
+        <v>-0.01043938982389984</v>
       </c>
       <c r="H20">
-        <v>-0.01669111850945225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01227152865404374</v>
+      </c>
+      <c r="I20">
+        <v>-0.002056059717086498</v>
+      </c>
+      <c r="J20">
+        <v>0.03758572864049848</v>
+      </c>
+      <c r="K20">
+        <v>0.006738680451206948</v>
+      </c>
+      <c r="L20">
+        <v>-0.08221945248673544</v>
+      </c>
+      <c r="M20">
+        <v>-0.01067813650721386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01956138767080523</v>
+        <v>-0.03004905058539546</v>
       </c>
       <c r="C21">
-        <v>0.02831141972189151</v>
+        <v>0.02340914450019987</v>
       </c>
       <c r="D21">
-        <v>0.001944630904340599</v>
+        <v>-0.003851222836362984</v>
       </c>
       <c r="E21">
-        <v>-0.05333159572071957</v>
+        <v>0.02264645656875597</v>
       </c>
       <c r="F21">
-        <v>0.09095234563286363</v>
+        <v>0.06183508651601461</v>
       </c>
       <c r="G21">
-        <v>0.002839889211008369</v>
+        <v>0.09346597314039733</v>
       </c>
       <c r="H21">
-        <v>0.03299195696482706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.0273859842808092</v>
+      </c>
+      <c r="I21">
+        <v>0.05058269219394927</v>
+      </c>
+      <c r="J21">
+        <v>0.04225228815759507</v>
+      </c>
+      <c r="K21">
+        <v>0.06745587164640135</v>
+      </c>
+      <c r="L21">
+        <v>-0.07310261146177226</v>
+      </c>
+      <c r="M21">
+        <v>0.01484728767271638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01696205503478616</v>
+        <v>-0.0427389221770581</v>
       </c>
       <c r="C22">
-        <v>0.04177756222476835</v>
+        <v>0.01208813612070392</v>
       </c>
       <c r="D22">
-        <v>-0.1423915137756791</v>
+        <v>-0.6570347669141967</v>
       </c>
       <c r="E22">
-        <v>-0.5150516033889846</v>
+        <v>0.05551295039774073</v>
       </c>
       <c r="F22">
-        <v>-0.0504704453179884</v>
+        <v>-0.0649475463791058</v>
       </c>
       <c r="G22">
-        <v>0.293602487519595</v>
+        <v>-0.07062098272820171</v>
       </c>
       <c r="H22">
-        <v>-0.1061501821447635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1036762019077155</v>
+      </c>
+      <c r="I22">
+        <v>0.09609845014274122</v>
+      </c>
+      <c r="J22">
+        <v>0.01444455808682092</v>
+      </c>
+      <c r="K22">
+        <v>-0.02260674560131607</v>
+      </c>
+      <c r="L22">
+        <v>0.01366797647344786</v>
+      </c>
+      <c r="M22">
+        <v>0.003033434543861568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.0157058256943234</v>
+        <v>-0.04297696233071812</v>
       </c>
       <c r="C23">
-        <v>0.04006065013477011</v>
+        <v>0.01227506514198564</v>
       </c>
       <c r="D23">
-        <v>-0.1421836314610195</v>
+        <v>-0.6585318828826182</v>
       </c>
       <c r="E23">
-        <v>-0.5137014872483058</v>
+        <v>0.05604003786685081</v>
       </c>
       <c r="F23">
-        <v>-0.0502081728850711</v>
+        <v>-0.06187269547236102</v>
       </c>
       <c r="G23">
-        <v>0.2938266086727679</v>
+        <v>-0.07143498091715196</v>
       </c>
       <c r="H23">
-        <v>-0.1037444139700981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1042563637918704</v>
+      </c>
+      <c r="I23">
+        <v>0.09297279673025825</v>
+      </c>
+      <c r="J23">
+        <v>0.01543524365556875</v>
+      </c>
+      <c r="K23">
+        <v>-0.02498862201628167</v>
+      </c>
+      <c r="L23">
+        <v>0.01547984185308741</v>
+      </c>
+      <c r="M23">
+        <v>0.004099836532936828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07486035696840296</v>
+        <v>-0.07737101003047793</v>
       </c>
       <c r="C24">
-        <v>0.07675300169737398</v>
+        <v>0.0758106849699747</v>
       </c>
       <c r="D24">
-        <v>0.03815471559484965</v>
+        <v>0.01770405719291714</v>
       </c>
       <c r="E24">
-        <v>-0.04348761243374973</v>
+        <v>0.01715626768297122</v>
       </c>
       <c r="F24">
-        <v>-0.0272134281392255</v>
+        <v>0.1151710274713709</v>
       </c>
       <c r="G24">
-        <v>-0.04537388076244081</v>
+        <v>-0.003700025027935715</v>
       </c>
       <c r="H24">
-        <v>-0.04255999118037317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.02653882602445932</v>
+      </c>
+      <c r="I24">
+        <v>0.03905338654638375</v>
+      </c>
+      <c r="J24">
+        <v>-0.04854073708953741</v>
+      </c>
+      <c r="K24">
+        <v>-0.06136378267061406</v>
+      </c>
+      <c r="L24">
+        <v>-0.04035937503292299</v>
+      </c>
+      <c r="M24">
+        <v>-0.1017107658484772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06776110355589529</v>
+        <v>-0.07496101694445333</v>
       </c>
       <c r="C25">
-        <v>0.04177382391084175</v>
+        <v>0.05098027624051939</v>
       </c>
       <c r="D25">
-        <v>0.03091970133860513</v>
+        <v>0.03451228220773299</v>
       </c>
       <c r="E25">
-        <v>-0.05039913461421346</v>
+        <v>0.01251662957330836</v>
       </c>
       <c r="F25">
-        <v>-0.04329681378833755</v>
+        <v>0.1246684584911494</v>
       </c>
       <c r="G25">
-        <v>-0.06081571822002003</v>
+        <v>-0.01759982536408169</v>
       </c>
       <c r="H25">
-        <v>-0.01570409427755601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.01806521900071074</v>
+      </c>
+      <c r="I25">
+        <v>0.03798977062301576</v>
+      </c>
+      <c r="J25">
+        <v>-0.04720793491893603</v>
+      </c>
+      <c r="K25">
+        <v>-0.08515401558549308</v>
+      </c>
+      <c r="L25">
+        <v>-0.04092331249040659</v>
+      </c>
+      <c r="M25">
+        <v>-0.108861341982868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04390000401009411</v>
+        <v>-0.04312759287985614</v>
       </c>
       <c r="C26">
-        <v>0.03667777314075142</v>
+        <v>0.02200474012155085</v>
       </c>
       <c r="D26">
-        <v>0.03690071809445738</v>
+        <v>-0.01285852487922467</v>
       </c>
       <c r="E26">
-        <v>-0.002047624620251163</v>
+        <v>-0.001235666018111667</v>
       </c>
       <c r="F26">
-        <v>-0.0115005615613998</v>
+        <v>0.03636600132011073</v>
       </c>
       <c r="G26">
-        <v>0.02677104476283368</v>
+        <v>-0.006854181939050885</v>
       </c>
       <c r="H26">
-        <v>-0.008216863737858475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01561987028676164</v>
+      </c>
+      <c r="I26">
+        <v>0.03445705562204351</v>
+      </c>
+      <c r="J26">
+        <v>0.07300278595481455</v>
+      </c>
+      <c r="K26">
+        <v>0.1085211438131305</v>
+      </c>
+      <c r="L26">
+        <v>-0.09602824799662675</v>
+      </c>
+      <c r="M26">
+        <v>-0.01636664820248146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.109882232773661</v>
+        <v>-0.1443675696541974</v>
       </c>
       <c r="C28">
-        <v>-0.2962746589059067</v>
+        <v>-0.2851595722691387</v>
       </c>
       <c r="D28">
-        <v>0.03567042021189794</v>
+        <v>0.01452884988769131</v>
       </c>
       <c r="E28">
-        <v>0.001872651895449561</v>
+        <v>0.02959336980324528</v>
       </c>
       <c r="F28">
-        <v>0.05421314417842463</v>
+        <v>0.003007721259239015</v>
       </c>
       <c r="G28">
-        <v>0.01425232688646356</v>
+        <v>0.006686240995951134</v>
       </c>
       <c r="H28">
-        <v>-0.05070046418856639</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01558194218577652</v>
+      </c>
+      <c r="I28">
+        <v>-0.01244603152113884</v>
+      </c>
+      <c r="J28">
+        <v>-0.0001987813964566494</v>
+      </c>
+      <c r="K28">
+        <v>0.03148982151369725</v>
+      </c>
+      <c r="L28">
+        <v>-0.02551153467913992</v>
+      </c>
+      <c r="M28">
+        <v>0.01502413877992777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05241516548025861</v>
+        <v>-0.0438376560649465</v>
       </c>
       <c r="C29">
-        <v>0.02080938399214749</v>
+        <v>0.02829161923655386</v>
       </c>
       <c r="D29">
-        <v>0.009221167728500223</v>
+        <v>0.002824406395981866</v>
       </c>
       <c r="E29">
-        <v>-0.02631543628920032</v>
+        <v>0.01859702594393807</v>
       </c>
       <c r="F29">
-        <v>-0.002738146296222195</v>
+        <v>0.06309873653514933</v>
       </c>
       <c r="G29">
-        <v>0.01594185531220816</v>
+        <v>-0.02453141187816193</v>
       </c>
       <c r="H29">
-        <v>0.02203800272925251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.02326017528952366</v>
+      </c>
+      <c r="I29">
+        <v>0.001158877525804619</v>
+      </c>
+      <c r="J29">
+        <v>0.0634867702071632</v>
+      </c>
+      <c r="K29">
+        <v>0.01585879842201678</v>
+      </c>
+      <c r="L29">
+        <v>-0.05038953438381898</v>
+      </c>
+      <c r="M29">
+        <v>0.0161031003729345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1328312862018999</v>
+        <v>-0.09828669192554564</v>
       </c>
       <c r="C30">
-        <v>0.0533781260066634</v>
+        <v>0.06703945095671329</v>
       </c>
       <c r="D30">
-        <v>0.06606367243874961</v>
+        <v>-0.005778616249251353</v>
       </c>
       <c r="E30">
-        <v>-0.1332566557913422</v>
+        <v>0.03860004428224155</v>
       </c>
       <c r="F30">
-        <v>0.02399446407205277</v>
+        <v>0.1963452681235123</v>
       </c>
       <c r="G30">
-        <v>-0.1359238221247731</v>
+        <v>0.008253590753482649</v>
       </c>
       <c r="H30">
-        <v>-0.04017901239029444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2434139360587345</v>
+      </c>
+      <c r="I30">
+        <v>0.07336948058992984</v>
+      </c>
+      <c r="J30">
+        <v>0.1056480687739685</v>
+      </c>
+      <c r="K30">
+        <v>0.07402654112327697</v>
+      </c>
+      <c r="L30">
+        <v>-0.1095287286160333</v>
+      </c>
+      <c r="M30">
+        <v>0.4206973846098149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05090800177641999</v>
+        <v>-0.03522120540604121</v>
       </c>
       <c r="C31">
-        <v>0.0276510752709146</v>
+        <v>0.04726974733492243</v>
       </c>
       <c r="D31">
-        <v>-0.007489420321200185</v>
+        <v>-0.005862070742585837</v>
       </c>
       <c r="E31">
-        <v>0.005367185646674686</v>
+        <v>-0.009919470771528761</v>
       </c>
       <c r="F31">
-        <v>-0.02070752905157889</v>
+        <v>0.0250338125263801</v>
       </c>
       <c r="G31">
-        <v>0.03932628419076895</v>
+        <v>-0.02491669597652686</v>
       </c>
       <c r="H31">
-        <v>0.0007691896854082908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03913191669204664</v>
+      </c>
+      <c r="I31">
+        <v>-0.02191149727484096</v>
+      </c>
+      <c r="J31">
+        <v>0.009444626526164084</v>
+      </c>
+      <c r="K31">
+        <v>-0.005348473538974483</v>
+      </c>
+      <c r="L31">
+        <v>-0.03236693876634545</v>
+      </c>
+      <c r="M31">
+        <v>-0.0002654513355162358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02133434292242295</v>
+        <v>-0.04190614000570597</v>
       </c>
       <c r="C32">
-        <v>-0.02080097141367797</v>
+        <v>-0.003634136194984439</v>
       </c>
       <c r="D32">
-        <v>-0.02342006009807047</v>
+        <v>0.01364537069448496</v>
       </c>
       <c r="E32">
-        <v>-0.08517381841461032</v>
+        <v>0.001430694563648383</v>
       </c>
       <c r="F32">
-        <v>-0.06899284081507806</v>
+        <v>0.08862737047197335</v>
       </c>
       <c r="G32">
-        <v>-0.03798073975499169</v>
+        <v>0.02084707001378347</v>
       </c>
       <c r="H32">
-        <v>-0.05684505374759113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.08592384054032902</v>
+      </c>
+      <c r="I32">
+        <v>-0.004770986633166147</v>
+      </c>
+      <c r="J32">
+        <v>-0.03446984917312082</v>
+      </c>
+      <c r="K32">
+        <v>0.04239892094968262</v>
+      </c>
+      <c r="L32">
+        <v>-0.02868088042327934</v>
+      </c>
+      <c r="M32">
+        <v>0.1306587569486827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1016007634615193</v>
+        <v>-0.0999106960559601</v>
       </c>
       <c r="C33">
-        <v>0.04168749868640629</v>
+        <v>0.06797716387745965</v>
       </c>
       <c r="D33">
-        <v>0.00213888772855793</v>
+        <v>0.008469067887468425</v>
       </c>
       <c r="E33">
-        <v>-0.017440209238214</v>
+        <v>-0.01293887768835975</v>
       </c>
       <c r="F33">
-        <v>-0.05272283555594371</v>
+        <v>0.07899582117433167</v>
       </c>
       <c r="G33">
-        <v>-0.02085896989011476</v>
+        <v>-0.0167732645799305</v>
       </c>
       <c r="H33">
-        <v>-0.0150486377548435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.01188783993410976</v>
+      </c>
+      <c r="I33">
+        <v>0.02910221769710516</v>
+      </c>
+      <c r="J33">
+        <v>0.05667145109863474</v>
+      </c>
+      <c r="K33">
+        <v>0.002086619354940395</v>
+      </c>
+      <c r="L33">
+        <v>-0.004005029252488587</v>
+      </c>
+      <c r="M33">
+        <v>-0.004799814168735256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.0553238762832572</v>
+        <v>-0.06357016623549731</v>
       </c>
       <c r="C34">
-        <v>0.08039204201456623</v>
+        <v>0.06310777501764857</v>
       </c>
       <c r="D34">
-        <v>0.01961111905818921</v>
+        <v>0.02554790748107329</v>
       </c>
       <c r="E34">
-        <v>-0.03330508016614945</v>
+        <v>0.0102238260694558</v>
       </c>
       <c r="F34">
-        <v>-0.02277197191831373</v>
+        <v>0.1030374089420797</v>
       </c>
       <c r="G34">
-        <v>-0.03505011801312606</v>
+        <v>-0.006456163838794677</v>
       </c>
       <c r="H34">
-        <v>-0.03126498826571469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.001062118181888539</v>
+      </c>
+      <c r="I34">
+        <v>0.03152642976275218</v>
+      </c>
+      <c r="J34">
+        <v>-0.03259609172268774</v>
+      </c>
+      <c r="K34">
+        <v>-0.05765582531802247</v>
+      </c>
+      <c r="L34">
+        <v>-0.04622304724756011</v>
+      </c>
+      <c r="M34">
+        <v>-0.1237022735888618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04385376154258879</v>
+        <v>-0.02624898555132161</v>
       </c>
       <c r="C35">
-        <v>0.04187987614328473</v>
+        <v>0.0281789452832666</v>
       </c>
       <c r="D35">
-        <v>0.008728569403422461</v>
+        <v>0.001260548703509793</v>
       </c>
       <c r="E35">
-        <v>-0.01497434402430262</v>
+        <v>-0.001934022351048289</v>
       </c>
       <c r="F35">
-        <v>-0.01362590617264074</v>
+        <v>0.0339371550869223</v>
       </c>
       <c r="G35">
-        <v>-0.02288479707842104</v>
+        <v>-0.01026994372482664</v>
       </c>
       <c r="H35">
-        <v>-0.01447710995973992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.005939667115786296</v>
+      </c>
+      <c r="I35">
+        <v>0.03309355979022446</v>
+      </c>
+      <c r="J35">
+        <v>0.005380669941753341</v>
+      </c>
+      <c r="K35">
+        <v>0.01534730339431054</v>
+      </c>
+      <c r="L35">
+        <v>-0.07991420823843282</v>
+      </c>
+      <c r="M35">
+        <v>0.003723468891152956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03535146486803872</v>
+        <v>-0.02973484083552154</v>
       </c>
       <c r="C36">
-        <v>0.02070233025575615</v>
+        <v>0.02129417089861858</v>
       </c>
       <c r="D36">
-        <v>0.0242491072706448</v>
+        <v>-0.01377619889324375</v>
       </c>
       <c r="E36">
-        <v>-0.0329182233756655</v>
+        <v>0.01158317129307163</v>
       </c>
       <c r="F36">
-        <v>-0.03351613759432182</v>
+        <v>0.06941238013283706</v>
       </c>
       <c r="G36">
-        <v>-0.01554143150239357</v>
+        <v>-0.002427586562122254</v>
       </c>
       <c r="H36">
-        <v>0.01304811057270753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.002336631787518412</v>
+      </c>
+      <c r="I36">
+        <v>0.003576659560518182</v>
+      </c>
+      <c r="J36">
+        <v>0.0479030343680032</v>
+      </c>
+      <c r="K36">
+        <v>0.01564276769922197</v>
+      </c>
+      <c r="L36">
+        <v>-0.03998064882803555</v>
+      </c>
+      <c r="M36">
+        <v>-0.03522970811075592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04063816424221418</v>
+        <v>-0.0299240343433197</v>
       </c>
       <c r="C38">
-        <v>0.03519795361291404</v>
+        <v>0.04766621063117182</v>
       </c>
       <c r="D38">
-        <v>-0.02173028367090241</v>
+        <v>-0.02595978955540289</v>
       </c>
       <c r="E38">
-        <v>-0.03793839438067988</v>
+        <v>0.003541360312469057</v>
       </c>
       <c r="F38">
-        <v>-0.01987770393541573</v>
+        <v>-0.04940844182927768</v>
       </c>
       <c r="G38">
-        <v>-0.006646005124628153</v>
+        <v>-0.05065745113924199</v>
       </c>
       <c r="H38">
-        <v>-0.0409290382958864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01884067761386074</v>
+      </c>
+      <c r="I38">
+        <v>0.06616830347931545</v>
+      </c>
+      <c r="J38">
+        <v>0.0418417262968554</v>
+      </c>
+      <c r="K38">
+        <v>0.1086494970600332</v>
+      </c>
+      <c r="L38">
+        <v>0.03636235825274541</v>
+      </c>
+      <c r="M38">
+        <v>0.1054677235611146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09736249652151624</v>
+        <v>-0.1000280623643388</v>
       </c>
       <c r="C39">
-        <v>0.09815658451891163</v>
+        <v>0.09366340758050011</v>
       </c>
       <c r="D39">
-        <v>0.01911663469607605</v>
+        <v>0.08495339066290349</v>
       </c>
       <c r="E39">
-        <v>-0.03668305396168159</v>
+        <v>-0.02098243725983761</v>
       </c>
       <c r="F39">
-        <v>-0.01804928320994705</v>
+        <v>0.1598254442929727</v>
       </c>
       <c r="G39">
-        <v>-0.07981421076769357</v>
+        <v>-0.07341076540377156</v>
       </c>
       <c r="H39">
-        <v>-0.1309470077909301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1140351910696379</v>
+      </c>
+      <c r="I39">
+        <v>0.07322731588117021</v>
+      </c>
+      <c r="J39">
+        <v>-0.1400499315781552</v>
+      </c>
+      <c r="K39">
+        <v>-0.09599629603772446</v>
+      </c>
+      <c r="L39">
+        <v>-0.1371490779763365</v>
+      </c>
+      <c r="M39">
+        <v>0.04610893649056334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05294604967163967</v>
+        <v>-0.03638124296898494</v>
       </c>
       <c r="C40">
-        <v>0.04750511566274328</v>
+        <v>0.05797322449770947</v>
       </c>
       <c r="D40">
-        <v>-0.05321034800283503</v>
+        <v>-0.04995906743906498</v>
       </c>
       <c r="E40">
-        <v>-0.1450448983149263</v>
+        <v>-0.002201008240728235</v>
       </c>
       <c r="F40">
-        <v>-0.06790303419635516</v>
+        <v>0.1154930393744348</v>
       </c>
       <c r="G40">
-        <v>-0.07605524450819776</v>
+        <v>0.07421065126614411</v>
       </c>
       <c r="H40">
-        <v>-0.1272942577269412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.007430896356180538</v>
+      </c>
+      <c r="I40">
+        <v>0.1161822244615895</v>
+      </c>
+      <c r="J40">
+        <v>0.01295867643897015</v>
+      </c>
+      <c r="K40">
+        <v>0.1349315580341541</v>
+      </c>
+      <c r="L40">
+        <v>0.01256584696318877</v>
+      </c>
+      <c r="M40">
+        <v>0.04613960334582504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04590166304385154</v>
+        <v>-0.03833287060886292</v>
       </c>
       <c r="C41">
-        <v>0.05107561468169811</v>
+        <v>0.03609714003618003</v>
       </c>
       <c r="D41">
-        <v>0.01319179117909812</v>
+        <v>0.01657074495139235</v>
       </c>
       <c r="E41">
-        <v>-0.003253620520324998</v>
+        <v>-0.001412944657433926</v>
       </c>
       <c r="F41">
-        <v>-0.03034451441054981</v>
+        <v>0.01749930143555692</v>
       </c>
       <c r="G41">
-        <v>-0.00703422526302238</v>
+        <v>-0.02832366070551708</v>
       </c>
       <c r="H41">
-        <v>-0.03371891261191852</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006286374679116147</v>
+      </c>
+      <c r="I41">
+        <v>0.01259169807011309</v>
+      </c>
+      <c r="J41">
+        <v>0.002082455004215141</v>
+      </c>
+      <c r="K41">
+        <v>0.03845438867658375</v>
+      </c>
+      <c r="L41">
+        <v>-0.02823569080026875</v>
+      </c>
+      <c r="M41">
+        <v>-0.03166912923325576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05907837166590873</v>
+        <v>-0.05241125513656732</v>
       </c>
       <c r="C43">
-        <v>0.03926513830368676</v>
+        <v>0.04462174733026431</v>
       </c>
       <c r="D43">
-        <v>0.02940281690171268</v>
+        <v>-0.01341747958418189</v>
       </c>
       <c r="E43">
-        <v>-0.03665518656714316</v>
+        <v>0.01102927184755818</v>
       </c>
       <c r="F43">
-        <v>-0.008451354564239094</v>
+        <v>0.01432431046604191</v>
       </c>
       <c r="G43">
-        <v>0.01721138309946437</v>
+        <v>-0.05185299830848947</v>
       </c>
       <c r="H43">
-        <v>-0.0154446885477073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01731228793143585</v>
+      </c>
+      <c r="I43">
+        <v>-0.002714566503435404</v>
+      </c>
+      <c r="J43">
+        <v>-0.005522868094257599</v>
+      </c>
+      <c r="K43">
+        <v>0.01020362976766744</v>
+      </c>
+      <c r="L43">
+        <v>-0.03372818256047879</v>
+      </c>
+      <c r="M43">
+        <v>-0.02362946988137523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05107703486584828</v>
+        <v>-0.08210836781178754</v>
       </c>
       <c r="C44">
-        <v>0.006616272062256853</v>
+        <v>0.05505479626266492</v>
       </c>
       <c r="D44">
-        <v>0.06001442841810025</v>
+        <v>-0.07763049227199301</v>
       </c>
       <c r="E44">
-        <v>-0.1248608088625688</v>
+        <v>0.1054690567735794</v>
       </c>
       <c r="F44">
-        <v>-0.02738422313256108</v>
+        <v>0.1676018876415124</v>
       </c>
       <c r="G44">
-        <v>-0.1218497624860242</v>
+        <v>0.004578116365578084</v>
       </c>
       <c r="H44">
-        <v>-0.0231204390851728</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01091199641662148</v>
+      </c>
+      <c r="I44">
+        <v>0.09648746166880733</v>
+      </c>
+      <c r="J44">
+        <v>-0.02733018822212285</v>
+      </c>
+      <c r="K44">
+        <v>0.03427472351751433</v>
+      </c>
+      <c r="L44">
+        <v>-0.01642432551661122</v>
+      </c>
+      <c r="M44">
+        <v>0.1295685285706821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02125646572894674</v>
+        <v>-0.03203747042615592</v>
       </c>
       <c r="C46">
-        <v>0.04303802740209371</v>
+        <v>0.03889631697557761</v>
       </c>
       <c r="D46">
-        <v>0.009597048572416939</v>
+        <v>-0.04071768452154671</v>
       </c>
       <c r="E46">
-        <v>-0.03795562831906467</v>
+        <v>0.03648353306521332</v>
       </c>
       <c r="F46">
-        <v>-0.007028523915588118</v>
+        <v>0.03612602245983296</v>
       </c>
       <c r="G46">
-        <v>0.009464294726236128</v>
+        <v>0.01613670746628193</v>
       </c>
       <c r="H46">
-        <v>-0.00834895934732399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05222981194434252</v>
+      </c>
+      <c r="I46">
+        <v>0.005277916282125536</v>
+      </c>
+      <c r="J46">
+        <v>0.07675670353336281</v>
+      </c>
+      <c r="K46">
+        <v>0.03753447059998073</v>
+      </c>
+      <c r="L46">
+        <v>-0.06862744017484461</v>
+      </c>
+      <c r="M46">
+        <v>-0.0131058166856153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02755629171280422</v>
+        <v>-0.04619169082655789</v>
       </c>
       <c r="C47">
-        <v>0.000755554573523779</v>
+        <v>0.0283641433616762</v>
       </c>
       <c r="D47">
-        <v>-0.0170756844880697</v>
+        <v>-0.01946992948003887</v>
       </c>
       <c r="E47">
-        <v>-0.07046364679340927</v>
+        <v>0.007662638055347424</v>
       </c>
       <c r="F47">
-        <v>-0.02680349579573686</v>
+        <v>0.04553382299706852</v>
       </c>
       <c r="G47">
-        <v>-0.005987528267443773</v>
+        <v>-0.01594663344328332</v>
       </c>
       <c r="H47">
-        <v>0.04040731075375682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.005636747115319634</v>
+      </c>
+      <c r="I47">
+        <v>0.01415351662025453</v>
+      </c>
+      <c r="J47">
+        <v>0.05317204269544561</v>
+      </c>
+      <c r="K47">
+        <v>0.003079948336423525</v>
+      </c>
+      <c r="L47">
+        <v>-0.02406907155932211</v>
+      </c>
+      <c r="M47">
+        <v>-0.03903793309257581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03249542038504166</v>
+        <v>-0.04164772849628094</v>
       </c>
       <c r="C48">
-        <v>0.02672894312925793</v>
+        <v>0.02028797852653968</v>
       </c>
       <c r="D48">
-        <v>-0.0002336832612223219</v>
+        <v>-0.01086448355113226</v>
       </c>
       <c r="E48">
-        <v>-0.05182423318047183</v>
+        <v>0.0008419726183333309</v>
       </c>
       <c r="F48">
-        <v>-0.02576139428781759</v>
+        <v>0.07349177864794064</v>
       </c>
       <c r="G48">
-        <v>0.02500036501696501</v>
+        <v>0.0377480154472775</v>
       </c>
       <c r="H48">
-        <v>-0.004626738958895801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.004553739157384589</v>
+      </c>
+      <c r="I48">
+        <v>-0.00174581812061348</v>
+      </c>
+      <c r="J48">
+        <v>0.02685621124954185</v>
+      </c>
+      <c r="K48">
+        <v>0.000441271251479681</v>
+      </c>
+      <c r="L48">
+        <v>-0.07594251980627009</v>
+      </c>
+      <c r="M48">
+        <v>-0.02350304613371351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2029276955583162</v>
+        <v>-0.2253379431076057</v>
       </c>
       <c r="C49">
-        <v>0.118210144396991</v>
+        <v>0.07651928681375104</v>
       </c>
       <c r="D49">
-        <v>0.07811554000347777</v>
+        <v>0.05369630818884702</v>
       </c>
       <c r="E49">
-        <v>0.05559293700179371</v>
+        <v>0.032126443583697</v>
       </c>
       <c r="F49">
-        <v>0.1940148422665532</v>
+        <v>-0.2477971655931052</v>
       </c>
       <c r="G49">
-        <v>-0.02485080656086599</v>
+        <v>0.1411533766611784</v>
       </c>
       <c r="H49">
-        <v>-0.0111432317590108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.05553037370239457</v>
+      </c>
+      <c r="I49">
+        <v>0.1452504208194362</v>
+      </c>
+      <c r="J49">
+        <v>-0.09751852143503643</v>
+      </c>
+      <c r="K49">
+        <v>-0.1455914099671118</v>
+      </c>
+      <c r="L49">
+        <v>0.07092328438715766</v>
+      </c>
+      <c r="M49">
+        <v>-0.1092579190172507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05542393253235149</v>
+        <v>-0.04309668027433222</v>
       </c>
       <c r="C50">
-        <v>0.02646898394483326</v>
+        <v>0.04333266435811763</v>
       </c>
       <c r="D50">
-        <v>-0.004620457208259185</v>
+        <v>-0.003506166523446959</v>
       </c>
       <c r="E50">
-        <v>-0.02318192793065058</v>
+        <v>-0.01296353607155249</v>
       </c>
       <c r="F50">
-        <v>-0.05001126551625564</v>
+        <v>0.04808884442313403</v>
       </c>
       <c r="G50">
-        <v>0.04005684627386751</v>
+        <v>-0.03174992251673876</v>
       </c>
       <c r="H50">
-        <v>0.03422249398645984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.0207883926395072</v>
+      </c>
+      <c r="I50">
+        <v>-0.01462671639202199</v>
+      </c>
+      <c r="J50">
+        <v>0.05588497464628989</v>
+      </c>
+      <c r="K50">
+        <v>0.01336488737268571</v>
+      </c>
+      <c r="L50">
+        <v>-0.02311375778297929</v>
+      </c>
+      <c r="M50">
+        <v>0.02508761204736774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.0299202770444025</v>
+        <v>-0.02926424159190742</v>
       </c>
       <c r="C51">
-        <v>0.01224506819573968</v>
+        <v>0.005260810248596292</v>
       </c>
       <c r="D51">
-        <v>0.002051751055411931</v>
+        <v>0.001364229200828511</v>
       </c>
       <c r="E51">
-        <v>-0.0126233222258648</v>
+        <v>0.01912326684591481</v>
       </c>
       <c r="F51">
-        <v>0.001637278960323623</v>
+        <v>-0.01694353684639392</v>
       </c>
       <c r="G51">
-        <v>-0.01552074377741273</v>
+        <v>-0.008310299049776424</v>
       </c>
       <c r="H51">
-        <v>-0.01587261492464999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01994201118746282</v>
+      </c>
+      <c r="I51">
+        <v>0.008074302406446117</v>
+      </c>
+      <c r="J51">
+        <v>-0.05656768951006969</v>
+      </c>
+      <c r="K51">
+        <v>-0.06962424612419742</v>
+      </c>
+      <c r="L51">
+        <v>0.01689677505285061</v>
+      </c>
+      <c r="M51">
+        <v>0.01043670778790239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.02110871331882878</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01080051258163573</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01386569224667379</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.003875619539852737</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.008641105853098805</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.02127315070880268</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.0008621658161657178</v>
+      </c>
+      <c r="I52">
+        <v>-0.005982090048669362</v>
+      </c>
+      <c r="J52">
+        <v>-0.01149120688519203</v>
+      </c>
+      <c r="K52">
+        <v>0.004316868685938649</v>
+      </c>
+      <c r="L52">
+        <v>-0.01052615191254295</v>
+      </c>
+      <c r="M52">
+        <v>0.02135838778662881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1687009348096929</v>
+        <v>-0.1555121758750811</v>
       </c>
       <c r="C53">
-        <v>0.009829557211060701</v>
+        <v>0.04894383344921346</v>
       </c>
       <c r="D53">
-        <v>0.02094013661451292</v>
+        <v>0.01025305983092818</v>
       </c>
       <c r="E53">
-        <v>0.07943117759148398</v>
+        <v>-0.007987629394203489</v>
       </c>
       <c r="F53">
-        <v>-0.2618487892665395</v>
+        <v>-0.05289436361551064</v>
       </c>
       <c r="G53">
-        <v>0.007308431097527132</v>
+        <v>-0.2374189377852998</v>
       </c>
       <c r="H53">
-        <v>0.02776632942074012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1173696949451915</v>
+      </c>
+      <c r="I53">
+        <v>-0.0282138729258483</v>
+      </c>
+      <c r="J53">
+        <v>0.06952293612491993</v>
+      </c>
+      <c r="K53">
+        <v>-0.004315789418681128</v>
+      </c>
+      <c r="L53">
+        <v>0.08298855345208563</v>
+      </c>
+      <c r="M53">
+        <v>0.1044222925006527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04667076132259571</v>
+        <v>-0.05807649901881998</v>
       </c>
       <c r="C54">
-        <v>0.03041634623913908</v>
+        <v>0.03601828669430622</v>
       </c>
       <c r="D54">
-        <v>0.02641490358655461</v>
+        <v>-0.01544201181768113</v>
       </c>
       <c r="E54">
-        <v>-0.05032357040484492</v>
+        <v>0.02742195268934418</v>
       </c>
       <c r="F54">
-        <v>-0.01457327487573922</v>
+        <v>0.1201642886220494</v>
       </c>
       <c r="G54">
-        <v>-0.001802631444061581</v>
+        <v>0.03047280772775743</v>
       </c>
       <c r="H54">
-        <v>-0.0007866565813008881</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.03974801895565198</v>
+      </c>
+      <c r="I54">
+        <v>-0.05708080733272368</v>
+      </c>
+      <c r="J54">
+        <v>0.07172135442042142</v>
+      </c>
+      <c r="K54">
+        <v>0.0800531482363932</v>
+      </c>
+      <c r="L54">
+        <v>-0.07901468484060713</v>
+      </c>
+      <c r="M54">
+        <v>-0.02958434991076509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09139192288944688</v>
+        <v>-0.08705074520342171</v>
       </c>
       <c r="C55">
-        <v>0.001290628964270508</v>
+        <v>0.04228587019787035</v>
       </c>
       <c r="D55">
-        <v>0.01423792519835954</v>
+        <v>0.02783329212945394</v>
       </c>
       <c r="E55">
-        <v>0.01904299702921539</v>
+        <v>0.002084568103977268</v>
       </c>
       <c r="F55">
-        <v>-0.2283850405784788</v>
+        <v>0.01959512973384208</v>
       </c>
       <c r="G55">
-        <v>0.01845267586204238</v>
+        <v>-0.1538428989485185</v>
       </c>
       <c r="H55">
-        <v>0.04640240588657854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.09026735314143165</v>
+      </c>
+      <c r="I55">
+        <v>-0.01796966692897566</v>
+      </c>
+      <c r="J55">
+        <v>0.05427385166628056</v>
+      </c>
+      <c r="K55">
+        <v>-0.01669365537002331</v>
+      </c>
+      <c r="L55">
+        <v>0.04947567644511044</v>
+      </c>
+      <c r="M55">
+        <v>0.01652573757448342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1625847613584935</v>
+        <v>-0.1492933673251065</v>
       </c>
       <c r="C56">
-        <v>0.01265562229196849</v>
+        <v>0.07337845054100768</v>
       </c>
       <c r="D56">
-        <v>0.03966491142620036</v>
+        <v>0.03004031313184797</v>
       </c>
       <c r="E56">
-        <v>0.0719732656314995</v>
+        <v>0.01005690079925109</v>
       </c>
       <c r="F56">
-        <v>-0.2457273206303432</v>
+        <v>-0.02734126470945281</v>
       </c>
       <c r="G56">
-        <v>0.05727656912317776</v>
+        <v>-0.2293200118312749</v>
       </c>
       <c r="H56">
-        <v>0.037230876462832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1054088513962178</v>
+      </c>
+      <c r="I56">
+        <v>-0.01931072494009246</v>
+      </c>
+      <c r="J56">
+        <v>0.05269301948323129</v>
+      </c>
+      <c r="K56">
+        <v>0.02458375202914339</v>
+      </c>
+      <c r="L56">
+        <v>0.09723671811838819</v>
+      </c>
+      <c r="M56">
+        <v>0.04785820084044397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.03532142934678931</v>
+        <v>-0.0338523401302686</v>
       </c>
       <c r="C58">
-        <v>0.01951691342395727</v>
+        <v>0.03113094632446357</v>
       </c>
       <c r="D58">
-        <v>-0.01081366451031839</v>
+        <v>-0.08222181105197751</v>
       </c>
       <c r="E58">
-        <v>-0.3369888947364967</v>
+        <v>0.01225081478990957</v>
       </c>
       <c r="F58">
-        <v>0.1537343168403655</v>
+        <v>0.05579949292328116</v>
       </c>
       <c r="G58">
-        <v>0.03579080460572372</v>
+        <v>0.07631954123858919</v>
       </c>
       <c r="H58">
-        <v>0.1724946087159124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1287953150094523</v>
+      </c>
+      <c r="I58">
+        <v>-0.07055708199849281</v>
+      </c>
+      <c r="J58">
+        <v>-0.06243936695552095</v>
+      </c>
+      <c r="K58">
+        <v>-0.2946021671848762</v>
+      </c>
+      <c r="L58">
+        <v>-0.3591027427115678</v>
+      </c>
+      <c r="M58">
+        <v>-0.0221279627859087</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2372050138880763</v>
+        <v>-0.2272789460401034</v>
       </c>
       <c r="C59">
-        <v>-0.4112024077916989</v>
+        <v>-0.2995719894776286</v>
       </c>
       <c r="D59">
-        <v>0.027881423231404</v>
+        <v>0.04865797408446702</v>
       </c>
       <c r="E59">
-        <v>-0.004996892089502908</v>
+        <v>0.008990239685144612</v>
       </c>
       <c r="F59">
-        <v>-0.05388096690206927</v>
+        <v>0.03014819003236977</v>
       </c>
       <c r="G59">
-        <v>-0.04025976190771022</v>
+        <v>-0.07674784080549522</v>
       </c>
       <c r="H59">
-        <v>-0.07781439456385134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.05165216526695792</v>
+      </c>
+      <c r="I59">
+        <v>-0.03185073049425942</v>
+      </c>
+      <c r="J59">
+        <v>-0.1153000542680132</v>
+      </c>
+      <c r="K59">
+        <v>0.02468487563283745</v>
+      </c>
+      <c r="L59">
+        <v>0.0782970480300678</v>
+      </c>
+      <c r="M59">
+        <v>0.03977822866130806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2523137962571249</v>
+        <v>-0.241777440262582</v>
       </c>
       <c r="C60">
-        <v>0.07028093857702296</v>
+        <v>0.1179004207887082</v>
       </c>
       <c r="D60">
-        <v>0.09361929462972289</v>
+        <v>0.06026268254812819</v>
       </c>
       <c r="E60">
-        <v>-0.007838909032321265</v>
+        <v>0.05053389065587918</v>
       </c>
       <c r="F60">
-        <v>0.0503182922409039</v>
+        <v>-0.1068477354019558</v>
       </c>
       <c r="G60">
-        <v>0.01645784515505178</v>
+        <v>0.04933931362455912</v>
       </c>
       <c r="H60">
-        <v>0.08467398613682744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.08477719161318907</v>
+      </c>
+      <c r="I60">
+        <v>-0.0323403110313339</v>
+      </c>
+      <c r="J60">
+        <v>0.03717739558032172</v>
+      </c>
+      <c r="K60">
+        <v>-0.1341509777706691</v>
+      </c>
+      <c r="L60">
+        <v>0.1945310727083182</v>
+      </c>
+      <c r="M60">
+        <v>0.06858142568679977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08423781286065045</v>
+        <v>-0.0927473581482936</v>
       </c>
       <c r="C61">
-        <v>0.06335457847602467</v>
+        <v>0.0686569345475854</v>
       </c>
       <c r="D61">
-        <v>0.01819234753730584</v>
+        <v>0.04760194392074285</v>
       </c>
       <c r="E61">
-        <v>-0.00952531982810851</v>
+        <v>0.01213171612238808</v>
       </c>
       <c r="F61">
-        <v>-0.02170039653552693</v>
+        <v>0.1277546643878903</v>
       </c>
       <c r="G61">
-        <v>-0.009360985609068654</v>
+        <v>-0.07224121505347991</v>
       </c>
       <c r="H61">
-        <v>-0.07020122435905188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.02940651343319811</v>
+      </c>
+      <c r="I61">
+        <v>0.04412326844911517</v>
+      </c>
+      <c r="J61">
+        <v>-0.05279088942061298</v>
+      </c>
+      <c r="K61">
+        <v>-0.01603089889560218</v>
+      </c>
+      <c r="L61">
+        <v>-0.08366847577751334</v>
+      </c>
+      <c r="M61">
+        <v>-0.001910804728267641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1605847153819288</v>
+        <v>-0.1408223748791925</v>
       </c>
       <c r="C62">
-        <v>0.04995650803734032</v>
+        <v>0.07317179453068622</v>
       </c>
       <c r="D62">
-        <v>0.003662387911091834</v>
+        <v>0.02747928333068001</v>
       </c>
       <c r="E62">
-        <v>0.1340734441491115</v>
+        <v>-0.03680768372545225</v>
       </c>
       <c r="F62">
-        <v>-0.2330648531657674</v>
+        <v>-0.03676477539410805</v>
       </c>
       <c r="G62">
-        <v>-0.01148888792918552</v>
+        <v>-0.1724340305207033</v>
       </c>
       <c r="H62">
-        <v>-0.01580427124005285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1345073732584137</v>
+      </c>
+      <c r="I62">
+        <v>0.005229236423416344</v>
+      </c>
+      <c r="J62">
+        <v>0.1026204534002935</v>
+      </c>
+      <c r="K62">
+        <v>0.05408070727474606</v>
+      </c>
+      <c r="L62">
+        <v>0.09022006013104031</v>
+      </c>
+      <c r="M62">
+        <v>-0.0197082487477938</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03944543945378854</v>
+        <v>-0.04583781916579532</v>
       </c>
       <c r="C63">
-        <v>0.04285011349946155</v>
+        <v>0.03039483278926382</v>
       </c>
       <c r="D63">
-        <v>0.003294371304122364</v>
+        <v>0.007418487950895251</v>
       </c>
       <c r="E63">
-        <v>2.021229740511832e-05</v>
+        <v>-0.0126117505949654</v>
       </c>
       <c r="F63">
-        <v>-0.02443449196634747</v>
+        <v>0.06952454221194383</v>
       </c>
       <c r="G63">
-        <v>-0.01013317517364219</v>
+        <v>-0.00222081188584582</v>
       </c>
       <c r="H63">
-        <v>0.04381214628469478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.003309354647271901</v>
+      </c>
+      <c r="I63">
+        <v>-0.002031527293163173</v>
+      </c>
+      <c r="J63">
+        <v>0.03910014505928151</v>
+      </c>
+      <c r="K63">
+        <v>-0.01073946970545126</v>
+      </c>
+      <c r="L63">
+        <v>-0.0455536202736637</v>
+      </c>
+      <c r="M63">
+        <v>-0.01804373324624671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.102699130695742</v>
+        <v>-0.09861954600046879</v>
       </c>
       <c r="C64">
-        <v>0.02610514898359002</v>
+        <v>0.04459348989227423</v>
       </c>
       <c r="D64">
-        <v>0.0327824734175723</v>
+        <v>-0.007284687700102896</v>
       </c>
       <c r="E64">
-        <v>-0.04618322481448596</v>
+        <v>0.03973888138879978</v>
       </c>
       <c r="F64">
-        <v>0.0204422343811143</v>
+        <v>0.06865531696426902</v>
       </c>
       <c r="G64">
-        <v>-0.03844046749545684</v>
+        <v>0.006942840503651896</v>
       </c>
       <c r="H64">
-        <v>-0.04145842778796583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.07373742404199164</v>
+      </c>
+      <c r="I64">
+        <v>0.02410728598928925</v>
+      </c>
+      <c r="J64">
+        <v>0.002168388033717729</v>
+      </c>
+      <c r="K64">
+        <v>0.009810637231882892</v>
+      </c>
+      <c r="L64">
+        <v>-0.03232673890359282</v>
+      </c>
+      <c r="M64">
+        <v>0.03718912128909129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1253839471138021</v>
+        <v>-0.1235240630944251</v>
       </c>
       <c r="C65">
-        <v>0.04948681026907444</v>
+        <v>0.04620293260447927</v>
       </c>
       <c r="D65">
-        <v>0.03327884265895912</v>
+        <v>0.00666947228033945</v>
       </c>
       <c r="E65">
-        <v>-0.08295018769209626</v>
+        <v>-0.02279098068319246</v>
       </c>
       <c r="F65">
-        <v>0.1416985110679992</v>
+        <v>0.01620767915915674</v>
       </c>
       <c r="G65">
-        <v>-0.01151312262753922</v>
+        <v>0.2203852589281155</v>
       </c>
       <c r="H65">
-        <v>0.6871039622942732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1963497731423009</v>
+      </c>
+      <c r="I65">
+        <v>-0.34672043690292</v>
+      </c>
+      <c r="J65">
+        <v>0.5129395862910195</v>
+      </c>
+      <c r="K65">
+        <v>-0.1680278451386653</v>
+      </c>
+      <c r="L65">
+        <v>0.150055311126698</v>
+      </c>
+      <c r="M65">
+        <v>0.1061489803477952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1538426206835505</v>
+        <v>-0.1261773918093837</v>
       </c>
       <c r="C66">
-        <v>0.1329458075237412</v>
+        <v>0.1308426241864439</v>
       </c>
       <c r="D66">
-        <v>0.03180643857940797</v>
+        <v>0.09715576382315971</v>
       </c>
       <c r="E66">
-        <v>0.001740554944350852</v>
+        <v>-0.03534976876753623</v>
       </c>
       <c r="F66">
-        <v>-0.03564855033320653</v>
+        <v>0.1630797604800267</v>
       </c>
       <c r="G66">
-        <v>-0.1623623588568058</v>
+        <v>-0.07419843834534573</v>
       </c>
       <c r="H66">
-        <v>-0.2758081601940105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1065481561696641</v>
+      </c>
+      <c r="I66">
+        <v>0.1405828191281004</v>
+      </c>
+      <c r="J66">
+        <v>-0.1837582109068263</v>
+      </c>
+      <c r="K66">
+        <v>-0.06733726539111115</v>
+      </c>
+      <c r="L66">
+        <v>-0.08889456247640951</v>
+      </c>
+      <c r="M66">
+        <v>0.1119744957658021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07770655420862246</v>
+        <v>-0.07976474967519444</v>
       </c>
       <c r="C67">
-        <v>0.05226030625699669</v>
+        <v>0.05890577948224669</v>
       </c>
       <c r="D67">
-        <v>0.007587393404067268</v>
+        <v>-0.02232493550924971</v>
       </c>
       <c r="E67">
-        <v>-0.007591500145352436</v>
+        <v>0.02115020186117563</v>
       </c>
       <c r="F67">
-        <v>-0.002964782043243682</v>
+        <v>-0.05348355329210507</v>
       </c>
       <c r="G67">
-        <v>-0.0009165349618574347</v>
+        <v>-0.08663286407425722</v>
       </c>
       <c r="H67">
-        <v>-0.05749674997263925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.04821222184179049</v>
+      </c>
+      <c r="I67">
+        <v>0.07072862376227446</v>
+      </c>
+      <c r="J67">
+        <v>-0.01964992885316581</v>
+      </c>
+      <c r="K67">
+        <v>0.1081806013962935</v>
+      </c>
+      <c r="L67">
+        <v>0.08684551020997192</v>
+      </c>
+      <c r="M67">
+        <v>0.07854153547585332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09754456631447163</v>
+        <v>-0.1224632266909613</v>
       </c>
       <c r="C68">
-        <v>-0.2792800439717743</v>
+        <v>-0.2736203364754284</v>
       </c>
       <c r="D68">
-        <v>-0.006363911686703957</v>
+        <v>0.01144646727539312</v>
       </c>
       <c r="E68">
-        <v>-0.01428902777459645</v>
+        <v>0.001590830828516177</v>
       </c>
       <c r="F68">
-        <v>-0.03008452977643913</v>
+        <v>0.03769710122329778</v>
       </c>
       <c r="G68">
-        <v>0.03168514452293436</v>
+        <v>-0.02525059848856251</v>
       </c>
       <c r="H68">
-        <v>0.01837025410098858</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01425410735357065</v>
+      </c>
+      <c r="I68">
+        <v>-0.03158753696943038</v>
+      </c>
+      <c r="J68">
+        <v>0.05536639791401528</v>
+      </c>
+      <c r="K68">
+        <v>-0.01870887349144876</v>
+      </c>
+      <c r="L68">
+        <v>-0.02490208666853156</v>
+      </c>
+      <c r="M68">
+        <v>0.03230025755103437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04055863201840583</v>
+        <v>-0.04253219376012951</v>
       </c>
       <c r="C69">
-        <v>0.03008612808467154</v>
+        <v>0.02135172175893674</v>
       </c>
       <c r="D69">
-        <v>0.004908921843220225</v>
+        <v>-0.006936722082579241</v>
       </c>
       <c r="E69">
-        <v>-0.01910945153967679</v>
+        <v>-0.001832078633152011</v>
       </c>
       <c r="F69">
-        <v>-0.03108510045281724</v>
+        <v>0.01837301217773885</v>
       </c>
       <c r="G69">
-        <v>-0.03142314411445218</v>
+        <v>-0.02484468960653127</v>
       </c>
       <c r="H69">
-        <v>0.007612542677405532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01312826157969032</v>
+      </c>
+      <c r="I69">
+        <v>0.0142819426484262</v>
+      </c>
+      <c r="J69">
+        <v>0.018608603301729</v>
+      </c>
+      <c r="K69">
+        <v>0.005398837172182766</v>
+      </c>
+      <c r="L69">
+        <v>0.005418344109249637</v>
+      </c>
+      <c r="M69">
+        <v>-0.08109037195604935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05395836917723573</v>
+        <v>-0.0533121547917196</v>
       </c>
       <c r="C70">
-        <v>-0.002266795232106425</v>
+        <v>0.03439439478907774</v>
       </c>
       <c r="D70">
-        <v>0.042182569395975</v>
+        <v>0.02082696784751278</v>
       </c>
       <c r="E70">
-        <v>0.0001576630558048127</v>
+        <v>0.02508623328657563</v>
       </c>
       <c r="F70">
-        <v>0.09703642108283776</v>
+        <v>-0.003987346105927216</v>
       </c>
       <c r="G70">
-        <v>0.0629474643602011</v>
+        <v>0.07150833840547324</v>
       </c>
       <c r="H70">
-        <v>-0.0210197605756646</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01656861215187704</v>
+      </c>
+      <c r="I70">
+        <v>-0.01910521079588211</v>
+      </c>
+      <c r="J70">
+        <v>0.1178969844430566</v>
+      </c>
+      <c r="K70">
+        <v>0.2661814893673569</v>
+      </c>
+      <c r="L70">
+        <v>-0.09498283603209604</v>
+      </c>
+      <c r="M70">
+        <v>-0.07656368866666842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1044052402765669</v>
+        <v>-0.1372708039055697</v>
       </c>
       <c r="C71">
-        <v>-0.2804063660919333</v>
+        <v>-0.2811048190483633</v>
       </c>
       <c r="D71">
-        <v>0.02428235687787289</v>
+        <v>0.01606063223106399</v>
       </c>
       <c r="E71">
-        <v>-0.007191407122373467</v>
+        <v>0.01915565797181783</v>
       </c>
       <c r="F71">
-        <v>-0.0007233589220511851</v>
+        <v>0.03741658431655465</v>
       </c>
       <c r="G71">
-        <v>0.01109565638120635</v>
+        <v>-0.02692414519970656</v>
       </c>
       <c r="H71">
-        <v>-0.004124219532687079</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.0259225511028575</v>
+      </c>
+      <c r="I71">
+        <v>0.004237235004931241</v>
+      </c>
+      <c r="J71">
+        <v>0.02778770583574603</v>
+      </c>
+      <c r="K71">
+        <v>-0.02038978935767511</v>
+      </c>
+      <c r="L71">
+        <v>-0.01386904974563115</v>
+      </c>
+      <c r="M71">
+        <v>0.01381337731747737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1802157661726522</v>
+        <v>-0.1430557034232476</v>
       </c>
       <c r="C72">
-        <v>0.03582145277826949</v>
+        <v>0.03031848774014435</v>
       </c>
       <c r="D72">
-        <v>-0.2381905700687461</v>
+        <v>-0.009062078436213915</v>
       </c>
       <c r="E72">
-        <v>0.05901673842347369</v>
+        <v>-0.1869484326261113</v>
       </c>
       <c r="F72">
-        <v>-0.01772583185216658</v>
+        <v>0.03682883730533339</v>
       </c>
       <c r="G72">
-        <v>-0.08856811715822499</v>
+        <v>-0.0136805635029806</v>
       </c>
       <c r="H72">
-        <v>0.09703253204624258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02265310172221318</v>
+      </c>
+      <c r="I72">
+        <v>-0.0472299071841794</v>
+      </c>
+      <c r="J72">
+        <v>0.06977476895345368</v>
+      </c>
+      <c r="K72">
+        <v>-0.01529290793583681</v>
+      </c>
+      <c r="L72">
+        <v>0.1415322940608156</v>
+      </c>
+      <c r="M72">
+        <v>0.01707257384893881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2777319622610123</v>
+        <v>-0.2426977614028288</v>
       </c>
       <c r="C73">
-        <v>0.1880942113320747</v>
+        <v>0.1503517794240623</v>
       </c>
       <c r="D73">
-        <v>0.1167177694974752</v>
+        <v>0.1390963666181873</v>
       </c>
       <c r="E73">
-        <v>0.03579503437320055</v>
+        <v>0.08680735122586819</v>
       </c>
       <c r="F73">
-        <v>0.1833588748194361</v>
+        <v>-0.4493287551767672</v>
       </c>
       <c r="G73">
-        <v>-0.004744227728109562</v>
+        <v>0.1042346853215621</v>
       </c>
       <c r="H73">
-        <v>0.1684283871636253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2879606124356084</v>
+      </c>
+      <c r="I73">
+        <v>0.2230758629702049</v>
+      </c>
+      <c r="J73">
+        <v>-0.1736507414644778</v>
+      </c>
+      <c r="K73">
+        <v>-0.2879962461667026</v>
+      </c>
+      <c r="L73">
+        <v>0.09431215135328387</v>
+      </c>
+      <c r="M73">
+        <v>0.1267169622930088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09514821575352785</v>
+        <v>-0.09392427249146137</v>
       </c>
       <c r="C74">
-        <v>0.04162154749429213</v>
+        <v>0.07349703995455149</v>
       </c>
       <c r="D74">
-        <v>0.003382380452588482</v>
+        <v>0.006123387963103353</v>
       </c>
       <c r="E74">
-        <v>0.01986131743335727</v>
+        <v>-0.01554723300874153</v>
       </c>
       <c r="F74">
-        <v>-0.1469662367668828</v>
+        <v>-0.02916339584707615</v>
       </c>
       <c r="G74">
-        <v>0.03448938783873643</v>
+        <v>-0.1510341530246371</v>
       </c>
       <c r="H74">
-        <v>0.05552159859636966</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02034613041149263</v>
+      </c>
+      <c r="I74">
+        <v>0.03269686747645862</v>
+      </c>
+      <c r="J74">
+        <v>0.04525203294995758</v>
+      </c>
+      <c r="K74">
+        <v>-0.01964560504855426</v>
+      </c>
+      <c r="L74">
+        <v>0.01571233620764657</v>
+      </c>
+      <c r="M74">
+        <v>0.01374636150246599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09082592832158297</v>
+        <v>-0.09300693994852925</v>
       </c>
       <c r="C75">
-        <v>0.01852229890709089</v>
+        <v>0.05293744239650063</v>
       </c>
       <c r="D75">
-        <v>0.0115421037976898</v>
+        <v>0.005617862870644925</v>
       </c>
       <c r="E75">
-        <v>0.03732009261999876</v>
+        <v>-0.01084509184847757</v>
       </c>
       <c r="F75">
-        <v>-0.1180550999235998</v>
+        <v>-0.01724259547868672</v>
       </c>
       <c r="G75">
-        <v>0.04482528514282709</v>
+        <v>-0.1076302841140674</v>
       </c>
       <c r="H75">
-        <v>0.01662231060177624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07736286787210957</v>
+      </c>
+      <c r="I75">
+        <v>-0.03413682028439205</v>
+      </c>
+      <c r="J75">
+        <v>0.01918617362807613</v>
+      </c>
+      <c r="K75">
+        <v>0.006190158603579582</v>
+      </c>
+      <c r="L75">
+        <v>0.03520643042381941</v>
+      </c>
+      <c r="M75">
+        <v>-0.07497804373885211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1353167406316906</v>
+        <v>-0.08921941203635692</v>
       </c>
       <c r="C76">
-        <v>0.0279805459701673</v>
+        <v>0.06282196596776256</v>
       </c>
       <c r="D76">
-        <v>0.01430676212443656</v>
+        <v>0.001102121960710677</v>
       </c>
       <c r="E76">
-        <v>0.01409252099766223</v>
+        <v>0.005275148457700769</v>
       </c>
       <c r="F76">
-        <v>-0.2485275223548338</v>
+        <v>-0.04243663465862593</v>
       </c>
       <c r="G76">
-        <v>0.05232351622468397</v>
+        <v>-0.2001458448853091</v>
       </c>
       <c r="H76">
-        <v>0.0593162789714034</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1135952488557969</v>
+      </c>
+      <c r="I76">
+        <v>-0.03123480586241536</v>
+      </c>
+      <c r="J76">
+        <v>0.0421950497710971</v>
+      </c>
+      <c r="K76">
+        <v>-0.009030116468803112</v>
+      </c>
+      <c r="L76">
+        <v>0.04173460058405096</v>
+      </c>
+      <c r="M76">
+        <v>0.09220635413986843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07147778162145153</v>
+        <v>-0.06939656848030115</v>
       </c>
       <c r="C77">
-        <v>0.02931481934766774</v>
+        <v>0.02181572146373207</v>
       </c>
       <c r="D77">
-        <v>0.02334975350793408</v>
+        <v>0.0212205906126713</v>
       </c>
       <c r="E77">
-        <v>-0.1706037668531314</v>
+        <v>0.05689592369783381</v>
       </c>
       <c r="F77">
-        <v>0.1614544323605714</v>
+        <v>0.2808153482152901</v>
       </c>
       <c r="G77">
-        <v>-0.6577949516978865</v>
+        <v>0.142373677843703</v>
       </c>
       <c r="H77">
-        <v>-0.1266458132489716</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.3417205909953936</v>
+      </c>
+      <c r="I77">
+        <v>-0.01229678841434594</v>
+      </c>
+      <c r="J77">
+        <v>-0.2751679510832722</v>
+      </c>
+      <c r="K77">
+        <v>0.3915717445258466</v>
+      </c>
+      <c r="L77">
+        <v>0.5026096421718993</v>
+      </c>
+      <c r="M77">
+        <v>-0.05074890716385338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1397683804466452</v>
+        <v>-0.1635422658012262</v>
       </c>
       <c r="C78">
-        <v>0.06915767679318156</v>
+        <v>0.1231107676928301</v>
       </c>
       <c r="D78">
-        <v>0.01501969268170603</v>
+        <v>-0.1739809328829144</v>
       </c>
       <c r="E78">
-        <v>-0.1754589049402755</v>
+        <v>0.1101367422166469</v>
       </c>
       <c r="F78">
-        <v>0.04419760560832684</v>
+        <v>0.1393519172431301</v>
       </c>
       <c r="G78">
-        <v>-0.0223324994353192</v>
+        <v>0.2654351074994644</v>
       </c>
       <c r="H78">
-        <v>-0.0716003408857161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4363897125587779</v>
+      </c>
+      <c r="I78">
+        <v>-0.4819340281092042</v>
+      </c>
+      <c r="J78">
+        <v>-0.4488320804572978</v>
+      </c>
+      <c r="K78">
+        <v>-0.2066443600497128</v>
+      </c>
+      <c r="L78">
+        <v>0.1158053008572526</v>
+      </c>
+      <c r="M78">
+        <v>0.1111268009678461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1405336548460088</v>
+        <v>-0.1339651672221429</v>
       </c>
       <c r="C79">
-        <v>0.04845496384100503</v>
+        <v>0.07689339611016131</v>
       </c>
       <c r="D79">
-        <v>0.02609665272759237</v>
+        <v>0.001161741269928728</v>
       </c>
       <c r="E79">
-        <v>0.04769429256427098</v>
+        <v>0.003000022014426432</v>
       </c>
       <c r="F79">
-        <v>-0.1700881509783005</v>
+        <v>0.006895552421943934</v>
       </c>
       <c r="G79">
-        <v>0.03523200505878288</v>
+        <v>-0.166776076222014</v>
       </c>
       <c r="H79">
-        <v>0.009623636362885964</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08239182513663644</v>
+      </c>
+      <c r="I79">
+        <v>0.001340054807557166</v>
+      </c>
+      <c r="J79">
+        <v>0.07393992267907099</v>
+      </c>
+      <c r="K79">
+        <v>0.01642714821996409</v>
+      </c>
+      <c r="L79">
+        <v>0.07190279100974445</v>
+      </c>
+      <c r="M79">
+        <v>-0.023023536050775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02507425315247858</v>
+        <v>-0.05660140470680847</v>
       </c>
       <c r="C80">
-        <v>-0.0001389294283714947</v>
+        <v>0.02755370906142102</v>
       </c>
       <c r="D80">
-        <v>0.002315855866376218</v>
+        <v>0.06741909376880338</v>
       </c>
       <c r="E80">
-        <v>0.0424515236861467</v>
+        <v>0.006445343736393793</v>
       </c>
       <c r="F80">
-        <v>0.00151712110909818</v>
+        <v>0.03066594923387852</v>
       </c>
       <c r="G80">
-        <v>-0.0180347267305779</v>
+        <v>0.03259839213116274</v>
       </c>
       <c r="H80">
-        <v>0.06641910318751065</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.006433260821864129</v>
+      </c>
+      <c r="I80">
+        <v>-0.02346210491589608</v>
+      </c>
+      <c r="J80">
+        <v>0.07688490704938672</v>
+      </c>
+      <c r="K80">
+        <v>-0.05828952928353957</v>
+      </c>
+      <c r="L80">
+        <v>-0.1823456221027308</v>
+      </c>
+      <c r="M80">
+        <v>0.008692786147713068</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1100036085000671</v>
+        <v>-0.1216333762634966</v>
       </c>
       <c r="C81">
-        <v>0.0539728070327351</v>
+        <v>0.0616182107512565</v>
       </c>
       <c r="D81">
-        <v>0.03175706575512435</v>
+        <v>0.001660033035539607</v>
       </c>
       <c r="E81">
-        <v>0.04212815172228213</v>
+        <v>0.00629718888120062</v>
       </c>
       <c r="F81">
-        <v>-0.1128311818984711</v>
+        <v>0.02790821110510749</v>
       </c>
       <c r="G81">
-        <v>0.0207236996485758</v>
+        <v>-0.1369256354157898</v>
       </c>
       <c r="H81">
-        <v>0.01956761496721979</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.08430759560191549</v>
+      </c>
+      <c r="I81">
+        <v>0.02027208367526814</v>
+      </c>
+      <c r="J81">
+        <v>0.03167111991197603</v>
+      </c>
+      <c r="K81">
+        <v>0.007832090554876509</v>
+      </c>
+      <c r="L81">
+        <v>0.04081421931929169</v>
+      </c>
+      <c r="M81">
+        <v>-0.09907220581707991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1109179798824921</v>
+        <v>-0.1174090820124288</v>
       </c>
       <c r="C82">
-        <v>0.02650585430233761</v>
+        <v>0.05391356752664189</v>
       </c>
       <c r="D82">
-        <v>0.05877058099981256</v>
+        <v>0.02529330085609406</v>
       </c>
       <c r="E82">
-        <v>0.07456845273063357</v>
+        <v>-0.003983874595926741</v>
       </c>
       <c r="F82">
-        <v>-0.2614697976404299</v>
+        <v>-0.02165012247754887</v>
       </c>
       <c r="G82">
-        <v>0.03801119815597377</v>
+        <v>-0.2392638772167023</v>
       </c>
       <c r="H82">
-        <v>-0.02010316343332284</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1178615953920444</v>
+      </c>
+      <c r="I82">
+        <v>0.03919783823215349</v>
+      </c>
+      <c r="J82">
+        <v>0.03690442986719041</v>
+      </c>
+      <c r="K82">
+        <v>0.06536975716915537</v>
+      </c>
+      <c r="L82">
+        <v>-0.02145250009095705</v>
+      </c>
+      <c r="M82">
+        <v>-0.04625278759560824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06116118616503219</v>
+        <v>-0.07499098613271754</v>
       </c>
       <c r="C83">
-        <v>0.0482130050383317</v>
+        <v>0.07076104141457683</v>
       </c>
       <c r="D83">
-        <v>0.0329028365812491</v>
+        <v>0.01553890974864562</v>
       </c>
       <c r="E83">
-        <v>0.0001727935441031056</v>
+        <v>0.007134885651011432</v>
       </c>
       <c r="F83">
-        <v>0.06034308091220654</v>
+        <v>0.02275352900571475</v>
       </c>
       <c r="G83">
-        <v>-0.0113524858702342</v>
+        <v>-0.02661221825723756</v>
       </c>
       <c r="H83">
-        <v>-0.09428077171642342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.07696045429808548</v>
+      </c>
+      <c r="I83">
+        <v>0.005734192519072186</v>
+      </c>
+      <c r="J83">
+        <v>-0.01304808380926096</v>
+      </c>
+      <c r="K83">
+        <v>0.07933831137756547</v>
+      </c>
+      <c r="L83">
+        <v>-0.1310827713229341</v>
+      </c>
+      <c r="M83">
+        <v>0.04934925396639854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05156682587126752</v>
+        <v>-0.04780427300441884</v>
       </c>
       <c r="C84">
-        <v>0.04776366826235198</v>
+        <v>-0.02030460543272523</v>
       </c>
       <c r="D84">
-        <v>-0.0627409044968026</v>
+        <v>0.007012299300880066</v>
       </c>
       <c r="E84">
-        <v>0.008434896275034017</v>
+        <v>-0.02092000986693878</v>
       </c>
       <c r="F84">
-        <v>-0.04136197259890689</v>
+        <v>0.004509439930929102</v>
       </c>
       <c r="G84">
-        <v>0.1454562234604567</v>
+        <v>0.2110324805523882</v>
       </c>
       <c r="H84">
-        <v>-0.01457739654483659</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1555195303606022</v>
+      </c>
+      <c r="I84">
+        <v>0.1861134216943465</v>
+      </c>
+      <c r="J84">
+        <v>-0.01185027188865816</v>
+      </c>
+      <c r="K84">
+        <v>0.02908365427586792</v>
+      </c>
+      <c r="L84">
+        <v>-0.2091909371066195</v>
+      </c>
+      <c r="M84">
+        <v>0.4684710663713031</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08841482530217046</v>
+        <v>-0.1092746916070039</v>
       </c>
       <c r="C85">
-        <v>0.04086729150486951</v>
+        <v>0.05144943473806197</v>
       </c>
       <c r="D85">
-        <v>0.05037591931032637</v>
+        <v>0.01049016271670245</v>
       </c>
       <c r="E85">
-        <v>0.02835590817727224</v>
+        <v>0.02888072194157945</v>
       </c>
       <c r="F85">
-        <v>-0.1974369868045633</v>
+        <v>0.00949885490514177</v>
       </c>
       <c r="G85">
-        <v>-0.0122101147373646</v>
+        <v>-0.1722420688035109</v>
       </c>
       <c r="H85">
-        <v>0.05055515365858677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08436163932959695</v>
+      </c>
+      <c r="I85">
+        <v>0.006601627994067953</v>
+      </c>
+      <c r="J85">
+        <v>0.06977560266343534</v>
+      </c>
+      <c r="K85">
+        <v>0.001285258683994122</v>
+      </c>
+      <c r="L85">
+        <v>0.09308904102614277</v>
+      </c>
+      <c r="M85">
+        <v>-0.03719491315962073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0465404455816553</v>
+        <v>-0.07211622480485172</v>
       </c>
       <c r="C86">
-        <v>0.04437344806387872</v>
+        <v>0.01789585352653918</v>
       </c>
       <c r="D86">
-        <v>0.002205149765643788</v>
+        <v>-0.01051922056414852</v>
       </c>
       <c r="E86">
-        <v>-0.03925379745885205</v>
+        <v>0.1067311491365758</v>
       </c>
       <c r="F86">
-        <v>0.04941627214552026</v>
+        <v>0.03176445582204317</v>
       </c>
       <c r="G86">
-        <v>-0.06163164291867882</v>
+        <v>0.4120322410139642</v>
       </c>
       <c r="H86">
-        <v>0.1176299414197241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4697193371712634</v>
+      </c>
+      <c r="I86">
+        <v>0.5092730468600936</v>
+      </c>
+      <c r="J86">
+        <v>0.2239199455821052</v>
+      </c>
+      <c r="K86">
+        <v>0.01079690988449953</v>
+      </c>
+      <c r="L86">
+        <v>0.2146702862101488</v>
+      </c>
+      <c r="M86">
+        <v>0.008839402812475314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09182665805146892</v>
+        <v>-0.1119938920841536</v>
       </c>
       <c r="C87">
-        <v>0.05911090095802254</v>
+        <v>0.06914851424369052</v>
       </c>
       <c r="D87">
-        <v>0.01204387307550759</v>
+        <v>-0.02900443667420317</v>
       </c>
       <c r="E87">
-        <v>-0.1000602087574583</v>
+        <v>0.03634719314466259</v>
       </c>
       <c r="F87">
-        <v>0.03289011518100585</v>
+        <v>0.1147421227019317</v>
       </c>
       <c r="G87">
-        <v>-0.1325510817516465</v>
+        <v>0.09377982942555295</v>
       </c>
       <c r="H87">
-        <v>-0.0664334519315016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.112397316742011</v>
+      </c>
+      <c r="I87">
+        <v>0.04448139909945589</v>
+      </c>
+      <c r="J87">
+        <v>-0.04679063468035613</v>
+      </c>
+      <c r="K87">
+        <v>0.1931113365544218</v>
+      </c>
+      <c r="L87">
+        <v>0.03237871577291619</v>
+      </c>
+      <c r="M87">
+        <v>-0.06559056274161502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0545703179287651</v>
+        <v>-0.05819729981351932</v>
       </c>
       <c r="C88">
-        <v>0.04115194038508709</v>
+        <v>0.05384647217641735</v>
       </c>
       <c r="D88">
-        <v>0.02617355150244443</v>
+        <v>0.02920015977424206</v>
       </c>
       <c r="E88">
-        <v>-0.01100012126496703</v>
+        <v>0.005678758506498917</v>
       </c>
       <c r="F88">
-        <v>0.01129205158148162</v>
+        <v>0.03715080657834022</v>
       </c>
       <c r="G88">
-        <v>-0.0262770576882848</v>
+        <v>-0.03249500498855668</v>
       </c>
       <c r="H88">
-        <v>-0.03318299424414035</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01350258484364801</v>
+      </c>
+      <c r="I88">
+        <v>0.01776178105972917</v>
+      </c>
+      <c r="J88">
+        <v>0.01213854546473037</v>
+      </c>
+      <c r="K88">
+        <v>-0.0310630803495211</v>
+      </c>
+      <c r="L88">
+        <v>-0.06333676998056346</v>
+      </c>
+      <c r="M88">
+        <v>-0.04620709256536091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1636542631631615</v>
+        <v>-0.2127178172760474</v>
       </c>
       <c r="C89">
-        <v>-0.3252170393611694</v>
+        <v>-0.359156143239718</v>
       </c>
       <c r="D89">
-        <v>0.06192390173902789</v>
+        <v>-0.03629762221492758</v>
       </c>
       <c r="E89">
-        <v>-0.08573946518874728</v>
+        <v>0.08241986859078014</v>
       </c>
       <c r="F89">
-        <v>0.04274155532300324</v>
+        <v>0.01631661172074476</v>
       </c>
       <c r="G89">
-        <v>-0.01793970497871743</v>
+        <v>0.001803034454556999</v>
       </c>
       <c r="H89">
-        <v>-0.006872536501282774</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.003338379918314545</v>
+      </c>
+      <c r="I89">
+        <v>0.01944322817321066</v>
+      </c>
+      <c r="J89">
+        <v>-0.05274438772912827</v>
+      </c>
+      <c r="K89">
+        <v>-0.03255812848900913</v>
+      </c>
+      <c r="L89">
+        <v>-0.06072177285514121</v>
+      </c>
+      <c r="M89">
+        <v>-0.07114066357320332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1226897249577242</v>
+        <v>-0.1472552573320881</v>
       </c>
       <c r="C90">
-        <v>-0.2774597065690202</v>
+        <v>-0.2707638753212668</v>
       </c>
       <c r="D90">
-        <v>0.008397794028220208</v>
+        <v>0.01501946404704492</v>
       </c>
       <c r="E90">
-        <v>-0.05336951815202216</v>
+        <v>0.02406646410705153</v>
       </c>
       <c r="F90">
-        <v>0.05176021886138184</v>
+        <v>0.03360586655174467</v>
       </c>
       <c r="G90">
-        <v>-0.09936918278198195</v>
+        <v>0.01568218854437908</v>
       </c>
       <c r="H90">
-        <v>-0.04547321452924626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05782625112547481</v>
+      </c>
+      <c r="I90">
+        <v>0.02126728857339562</v>
+      </c>
+      <c r="J90">
+        <v>-0.01285214677770887</v>
+      </c>
+      <c r="K90">
+        <v>-0.02236890187687784</v>
+      </c>
+      <c r="L90">
+        <v>-0.002512060599083938</v>
+      </c>
+      <c r="M90">
+        <v>0.06318644262958989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08481888140676037</v>
+        <v>-0.07677156114500798</v>
       </c>
       <c r="C91">
-        <v>0.01923160039310347</v>
+        <v>0.05458263000889896</v>
       </c>
       <c r="D91">
-        <v>0.008003881354697295</v>
+        <v>-0.006903822498030236</v>
       </c>
       <c r="E91">
-        <v>-0.0173676718362892</v>
+        <v>0.00597077399674185</v>
       </c>
       <c r="F91">
-        <v>-0.1105377176125852</v>
+        <v>-0.01303304398387139</v>
       </c>
       <c r="G91">
-        <v>0.0557122033693495</v>
+        <v>-0.09046364227064428</v>
       </c>
       <c r="H91">
-        <v>0.01840634534573788</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06343018566796979</v>
+      </c>
+      <c r="I91">
+        <v>-0.003548534426219341</v>
+      </c>
+      <c r="J91">
+        <v>-0.002034824119514154</v>
+      </c>
+      <c r="K91">
+        <v>-0.01161850203295386</v>
+      </c>
+      <c r="L91">
+        <v>0.01851196701116271</v>
+      </c>
+      <c r="M91">
+        <v>-0.003753908417029109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1397125688546756</v>
+        <v>-0.1644058458582726</v>
       </c>
       <c r="C92">
-        <v>-0.3051313050426004</v>
+        <v>-0.3033270784053527</v>
       </c>
       <c r="D92">
-        <v>0.04412478474276804</v>
+        <v>-0.02700202242620882</v>
       </c>
       <c r="E92">
-        <v>-0.03875687021583214</v>
+        <v>0.04640663172371329</v>
       </c>
       <c r="F92">
-        <v>0.02917162938871052</v>
+        <v>0.03194373783382456</v>
       </c>
       <c r="G92">
-        <v>0.09116081922080485</v>
+        <v>-0.02680510991955187</v>
       </c>
       <c r="H92">
-        <v>0.01311238845047841</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.003094315839790511</v>
+      </c>
+      <c r="I92">
+        <v>-0.01383667228379212</v>
+      </c>
+      <c r="J92">
+        <v>-0.01025098308744434</v>
+      </c>
+      <c r="K92">
+        <v>-0.0349112667625313</v>
+      </c>
+      <c r="L92">
+        <v>-0.04329891751800247</v>
+      </c>
+      <c r="M92">
+        <v>-0.08116324411301364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.136520005673602</v>
+        <v>-0.1643677507051457</v>
       </c>
       <c r="C93">
-        <v>-0.2579368615586029</v>
+        <v>-0.2869857032856378</v>
       </c>
       <c r="D93">
-        <v>0.02445552156740941</v>
+        <v>0.03376581972792283</v>
       </c>
       <c r="E93">
-        <v>-0.0221099252686024</v>
+        <v>0.01043694583298241</v>
       </c>
       <c r="F93">
-        <v>0.03984701658176201</v>
+        <v>0.0162294580494795</v>
       </c>
       <c r="G93">
-        <v>-0.0143595372541522</v>
+        <v>0.01313838435428345</v>
       </c>
       <c r="H93">
-        <v>-0.009502135167913752</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.005166416616821615</v>
+      </c>
+      <c r="I93">
+        <v>0.0250483924865411</v>
+      </c>
+      <c r="J93">
+        <v>0.03265594959668644</v>
+      </c>
+      <c r="K93">
+        <v>0.005093218475211048</v>
+      </c>
+      <c r="L93">
+        <v>-0.02500083162955467</v>
+      </c>
+      <c r="M93">
+        <v>0.04087758996303952</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09061657352935178</v>
+        <v>-0.10859233951478</v>
       </c>
       <c r="C94">
-        <v>0.05567237351499255</v>
+        <v>0.07599128034358629</v>
       </c>
       <c r="D94">
-        <v>0.007036721139748472</v>
+        <v>-0.02008471325965671</v>
       </c>
       <c r="E94">
-        <v>-0.001085384254088634</v>
+        <v>0.01478580033500948</v>
       </c>
       <c r="F94">
-        <v>-0.1702844432440296</v>
+        <v>-0.02878823988138062</v>
       </c>
       <c r="G94">
-        <v>0.07245435805546867</v>
+        <v>-0.1272341369033654</v>
       </c>
       <c r="H94">
-        <v>0.05560835847490889</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.06678264651342444</v>
+      </c>
+      <c r="I94">
+        <v>-0.0262769155682375</v>
+      </c>
+      <c r="J94">
+        <v>0.02616610113617968</v>
+      </c>
+      <c r="K94">
+        <v>-0.04507572520436917</v>
+      </c>
+      <c r="L94">
+        <v>0.02034272998022051</v>
+      </c>
+      <c r="M94">
+        <v>-0.0169983682356649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1035610135352687</v>
+        <v>-0.1266886400010268</v>
       </c>
       <c r="C95">
-        <v>0.07340499440290714</v>
+        <v>0.07167225939236566</v>
       </c>
       <c r="D95">
-        <v>0.06345386662335245</v>
+        <v>-0.01627393173130733</v>
       </c>
       <c r="E95">
-        <v>-0.05365283843248578</v>
+        <v>0.06266278461838341</v>
       </c>
       <c r="F95">
-        <v>0.03379338136849781</v>
+        <v>0.08378606029254146</v>
       </c>
       <c r="G95">
-        <v>0.01288804567823366</v>
+        <v>0.2074578652025144</v>
       </c>
       <c r="H95">
-        <v>0.003443195171794724</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.03061540785673418</v>
+      </c>
+      <c r="I95">
+        <v>0.1085394054130562</v>
+      </c>
+      <c r="J95">
+        <v>0.1309464236591661</v>
+      </c>
+      <c r="K95">
+        <v>-0.08704867322479708</v>
+      </c>
+      <c r="L95">
+        <v>-0.1039552507831653</v>
+      </c>
+      <c r="M95">
+        <v>-0.5153419733599062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>6.583496718350125e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001027557964867432</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0001834210863921844</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001542912006530225</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0006659842709621746</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0003196609983412394</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0007512874287558313</v>
+      </c>
+      <c r="I96">
+        <v>0.002513610612185117</v>
+      </c>
+      <c r="J96">
+        <v>0.001061754977033632</v>
+      </c>
+      <c r="K96">
+        <v>0.001860855755998947</v>
+      </c>
+      <c r="L96">
+        <v>0.003287526567091671</v>
+      </c>
+      <c r="M96">
+        <v>0.003323839243223401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2609523319029035</v>
+        <v>-0.1638311415529513</v>
       </c>
       <c r="C97">
-        <v>0.02323240475239892</v>
+        <v>-0.006475240864000285</v>
       </c>
       <c r="D97">
-        <v>-0.8721514053112566</v>
+        <v>-0.1046104217841458</v>
       </c>
       <c r="E97">
-        <v>0.1736066095929215</v>
+        <v>-0.9283143227555632</v>
       </c>
       <c r="F97">
-        <v>0.1323430431888509</v>
+        <v>0.0314274322734928</v>
       </c>
       <c r="G97">
-        <v>-0.03489169505066488</v>
+        <v>0.1185664499737582</v>
       </c>
       <c r="H97">
-        <v>-0.02088976615877716</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03071858532500446</v>
+      </c>
+      <c r="I97">
+        <v>0.06240799797051007</v>
+      </c>
+      <c r="J97">
+        <v>-0.0700575862075714</v>
+      </c>
+      <c r="K97">
+        <v>-0.00540891871651269</v>
+      </c>
+      <c r="L97">
+        <v>0.007312869468659625</v>
+      </c>
+      <c r="M97">
+        <v>-0.0288370882635707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2855183357485021</v>
+        <v>-0.266411518126764</v>
       </c>
       <c r="C98">
-        <v>0.1194262423283062</v>
+        <v>0.1095414494042466</v>
       </c>
       <c r="D98">
-        <v>0.1877085208551768</v>
+        <v>-0.0008151024282460239</v>
       </c>
       <c r="E98">
-        <v>0.2628662647791932</v>
+        <v>0.02091749260109641</v>
       </c>
       <c r="F98">
-        <v>0.4605611878800187</v>
+        <v>-0.4568546766063341</v>
       </c>
       <c r="G98">
-        <v>0.4336138096861085</v>
+        <v>0.1788970565733801</v>
       </c>
       <c r="H98">
-        <v>-0.297580836093964</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.03610982540897806</v>
+      </c>
+      <c r="I98">
+        <v>-0.2315744127070648</v>
+      </c>
+      <c r="J98">
+        <v>-0.09888064075949576</v>
+      </c>
+      <c r="K98">
+        <v>0.538570057379395</v>
+      </c>
+      <c r="L98">
+        <v>-0.3374460835025216</v>
+      </c>
+      <c r="M98">
+        <v>-0.06333313821072964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05900503479075431</v>
+        <v>-0.06728686890118661</v>
       </c>
       <c r="C99">
-        <v>0.04683611101094107</v>
+        <v>0.0548988246628996</v>
       </c>
       <c r="D99">
-        <v>0.06093585260911629</v>
+        <v>-0.006669177305407611</v>
       </c>
       <c r="E99">
-        <v>-0.002183411611519961</v>
+        <v>0.04740351455146644</v>
       </c>
       <c r="F99">
-        <v>0.0387267006543587</v>
+        <v>-0.009329517193517928</v>
       </c>
       <c r="G99">
-        <v>-0.001888322014677054</v>
+        <v>-0.01625894858641495</v>
       </c>
       <c r="H99">
-        <v>-0.07658977047808936</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.007162284892659674</v>
+      </c>
+      <c r="I99">
+        <v>-0.004732528265404235</v>
+      </c>
+      <c r="J99">
+        <v>-0.06304294007386957</v>
+      </c>
+      <c r="K99">
+        <v>0.03633354630664025</v>
+      </c>
+      <c r="L99">
+        <v>0.03872041582328422</v>
+      </c>
+      <c r="M99">
+        <v>-0.1064137886913875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05206366224640584</v>
+        <v>-0.04332433977500479</v>
       </c>
       <c r="C101">
-        <v>0.02076791876903911</v>
+        <v>0.02832023485599908</v>
       </c>
       <c r="D101">
-        <v>0.0105879069043783</v>
+        <v>0.00385910428357357</v>
       </c>
       <c r="E101">
-        <v>-0.02535770179521272</v>
+        <v>0.01957694899805287</v>
       </c>
       <c r="F101">
-        <v>-0.001039636992515869</v>
+        <v>0.06105963716580796</v>
       </c>
       <c r="G101">
-        <v>0.01617259711392163</v>
+        <v>-0.0256683023415403</v>
       </c>
       <c r="H101">
-        <v>0.02042134512174205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.02477563196596237</v>
+      </c>
+      <c r="I101">
+        <v>0.0006268444569565508</v>
+      </c>
+      <c r="J101">
+        <v>0.05859645193252404</v>
+      </c>
+      <c r="K101">
+        <v>0.01423658936005448</v>
+      </c>
+      <c r="L101">
+        <v>-0.05021660890904224</v>
+      </c>
+      <c r="M101">
+        <v>0.01573036700686574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
